--- a/data/DataBase/Xuat_Hang.xlsx
+++ b/data/DataBase/Xuat_Hang.xlsx
@@ -86,7 +86,7 @@
     <t>Giá xuất</t>
   </si>
   <si>
-    <t>KH Lưu Kim Loan</t>
+    <t>Lưu Kim Loan</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/DataBase/Xuat_Hang.xlsx
+++ b/data/DataBase/Xuat_Hang.xlsx
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +263,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,7 +572,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,12 +742,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://localhost/zend/nhasach/public/kenh-phan-phoi/chi-tiet-khach-hang/31"/>
-    <hyperlink ref="G3:G6" r:id="rId2" display="http://localhost/zend/nhasach/public/kenh-phan-phoi/chi-tiet-khach-hang/31"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/DataBase/Xuat_Hang.xlsx
+++ b/data/DataBase/Xuat_Hang.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Dụng cụ học sinh" sheetId="6" r:id="rId1"/>
+    <sheet name="dfas" sheetId="6" r:id="rId1"/>
     <sheet name="Văn phòng phẩm" sheetId="2" r:id="rId2"/>
     <sheet name="Thiết bị trường học" sheetId="3" r:id="rId3"/>
     <sheet name="Sách giáo khoa" sheetId="4" r:id="rId4"/>
@@ -86,14 +86,14 @@
     <t>Giá xuất</t>
   </si>
   <si>
-    <t>Lưu Kim Loan</t>
+    <t>KH Phan Văn Thanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +144,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -263,7 +257,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,7 +566,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,8 +736,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="http://localhost/zend/nhasach/public/kenh-phan-phoi/chi-tiet-khach-hang/35"/>
+    <hyperlink ref="G3:G6" r:id="rId2" display="http://localhost/zend/nhasach/public/kenh-phan-phoi/chi-tiet-khach-hang/35"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
